--- a/biology/Zoologie/Céphale_(papillon)/Céphale_(papillon).xlsx
+++ b/biology/Zoologie/Céphale_(papillon)/Céphale_(papillon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9phale_(papillon)</t>
+          <t>Céphale_(papillon)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coenonympha arcania
 Le Céphale ou Arcanie (Coenonympha arcania) est un lépidoptère (papillon) appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Coenonympha.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9phale_(papillon)</t>
+          <t>Céphale_(papillon)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Coenonympha arcania a été nommé par Carl von Linné en 1761.
-Synonymes : Papilio arcania Linnaeus 1761 ; Papilio amyntas Poda, 1761[1].
-Noms vernaculaires
-Le Céphale  ou Arcanie se nomme Pearly Heath en anglais, Perlgrasfalter ou Weißbindiges Wiesenvögelchen en allemand et Mancha Leonada en espagnol[2],[1].
+Synonymes : Papilio arcania Linnaeus 1761 ; Papilio amyntas Poda, 1761.
 </t>
         </is>
       </c>
@@ -528,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9phale_(papillon)</t>
+          <t>Céphale_(papillon)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +555,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Céphale  ou Arcanie se nomme Pearly Heath en anglais, Perlgrasfalter ou Weißbindiges Wiesenvögelchen en allemand et Mancha Leonada en espagnol,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Céphale_(papillon)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9phale_(papillon)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Céphale présente un dessus de couleur orangée bordé de marron clair pour les antérieures, marron clair  pour les postérieures, les ailes étant bordées d'une frange blanche.
 Le revers des antérieures est semblable, orangé avec un petit ocelle noir pupillé de blanc cerné de jaune orangé à l'apex. Les postérieures ont une ornementation caractéristique, une bande postmédiane blanc crème irrégulière que double une ligne de gros ocelles noirs pupillé de blanc cernés de jaune orangé.
@@ -558,47 +609,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>C%C3%A9phale_(papillon)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/C%C3%A9phale_(papillon)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une génération, en juin et début juillet[3].
-Plantes hôtes
-Ses plantes hôtes sont diverses poacées (graminées) Poa pratensis, Melica ciliata, Holcus lanatus[3],[1].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C%C3%A9phale_(papillon)</t>
+          <t>Céphale_(papillon)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,17 +630,163 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération, en juin et début juillet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Céphale_(papillon)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9phale_(papillon)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont diverses poacées (graminées) Poa pratensis, Melica ciliata, Holcus lanatus,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Céphale_(papillon)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9phale_(papillon)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans toute l'Europe continentale, excepté la Suède, la Norvège (sauf au sud) et la Finlande, il est aussi présent en Turquie et dans le sud de la Russie[1],[3].
-En France métropolitaine il est présent dans presque tous les départements. Font exception les régions Île-de-France et Corse ainsi que les départements du Pas-de-Calais et de la Manche[4].
-Biotope
-Il réside dans les lieux herbus et buissonneux, dans les clairières.
-Protection
-Il ne bénéficie pas de statut de protection particulier[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans toute l'Europe continentale, excepté la Suède, la Norvège (sauf au sud) et la Finlande, il est aussi présent en Turquie et dans le sud de la Russie,.
+En France métropolitaine il est présent dans presque tous les départements. Font exception les régions Île-de-France et Corse ainsi que les départements du Pas-de-Calais et de la Manche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Céphale_(papillon)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9phale_(papillon)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les lieux herbus et buissonneux, dans les clairières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Céphale_(papillon)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9phale_(papillon)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il ne bénéficie pas de statut de protection particulier.
 </t>
         </is>
       </c>
